--- a/data/trans_dic/CONS_ALER-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/CONS_ALER-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -562,47 +563,47 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
         </is>
       </c>
     </row>
@@ -632,47 +633,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>4,43%</t>
+          <t>2,96%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1,75%</t>
+          <t>1,63%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>3,03%</t>
+          <t>3,95%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>6,83%</t>
+          <t>3,55%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>3,54%</t>
+          <t>4,29%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>3,84%</t>
+          <t>6,13%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>5,72%</t>
+          <t>3,31%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>2,84%</t>
+          <t>3,32%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>3,49%</t>
+          <t>5,17%</t>
         </is>
       </c>
     </row>
@@ -685,47 +686,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,83; 6,33</t>
+          <t>1,84; 4,87</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,95; 3,33</t>
+          <t>0,54; 3,66</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,12; 4,49</t>
+          <t>2,53; 6,41</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>5,05; 8,89</t>
+          <t>2,34; 5,28</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>2,62; 4,66</t>
+          <t>2,98; 6,04</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>2,77; 5,12</t>
+          <t>4,4; 8,15</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>4,45; 7,03</t>
+          <t>2,34; 4,52</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>2,16; 3,73</t>
+          <t>2,36; 4,6</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>2,77; 4,52</t>
+          <t>4,01; 6,7</t>
         </is>
       </c>
     </row>
@@ -742,47 +743,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>4,81%</t>
+          <t>3,09%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>3,96%</t>
+          <t>3,43%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>3,01%</t>
+          <t>4,93%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>6,26%</t>
+          <t>4,24%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>5,44%</t>
+          <t>9,0%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>4,05%</t>
+          <t>6,35%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>5,51%</t>
+          <t>3,65%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>4,72%</t>
+          <t>6,19%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>3,51%</t>
+          <t>5,64%</t>
         </is>
       </c>
     </row>
@@ -795,47 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>3,83; 5,92</t>
+          <t>2,39; 4,01</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,06; 4,98</t>
+          <t>1,88; 4,95</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,46; 3,62</t>
+          <t>3,94; 6,13</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>5,16; 7,55</t>
+          <t>3,52; 5,32</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>4,19; 7,49</t>
+          <t>3,66; 26,17</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>3,38; 4,85</t>
+          <t>5,24; 7,9</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>4,75; 6,28</t>
+          <t>3,09; 4,23</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>3,92; 5,83</t>
+          <t>3,44; 15,98</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>3,07; 4,03</t>
+          <t>4,88; 6,51</t>
         </is>
       </c>
     </row>
@@ -852,47 +853,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>3,92%</t>
+          <t>3,35%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>2,46%</t>
+          <t>3,24%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>3,4%</t>
+          <t>3,78%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>6,78%</t>
+          <t>4,25%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>5,66%</t>
+          <t>5,87%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>3,84%</t>
+          <t>6,58%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>5,39%</t>
+          <t>3,85%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>4,11%</t>
+          <t>4,53%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>3,65%</t>
+          <t>5,25%</t>
         </is>
       </c>
     </row>
@@ -905,47 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,67; 5,99</t>
+          <t>2,3; 4,92</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,3; 3,87</t>
+          <t>1,85; 5,94</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,52; 4,89</t>
+          <t>2,38; 6,02</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>4,96; 8,89</t>
+          <t>3,13; 5,73</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>4,13; 7,56</t>
+          <t>4,14; 8,13</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>2,84; 5,05</t>
+          <t>4,91; 8,91</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>4,28; 6,77</t>
+          <t>3,06; 4,87</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>3,11; 5,3</t>
+          <t>3,38; 6,33</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>2,85; 4,48</t>
+          <t>4,0; 6,75</t>
         </is>
       </c>
     </row>
@@ -962,47 +963,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>4,53%</t>
+          <t>3,13%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>3,31%</t>
+          <t>3,19%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>3,09%</t>
+          <t>4,49%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>6,51%</t>
+          <t>4,13%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>5,07%</t>
+          <t>7,54%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>3,96%</t>
+          <t>6,37%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>5,52%</t>
+          <t>3,65%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>4,24%</t>
+          <t>5,43%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>3,54%</t>
+          <t>5,46%</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,82; 5,42</t>
+          <t>2,63; 3,87</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,64; 4,05</t>
+          <t>2,13; 4,37</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,59; 3,59</t>
+          <t>3,67; 5,38</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>5,62; 7,45</t>
+          <t>3,48; 4,78</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>4,35; 6,54</t>
+          <t>4,2; 19,43</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>3,47; 4,56</t>
+          <t>5,46; 7,47</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>4,92; 6,14</t>
+          <t>3,27; 4,11</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>3,74; 5,08</t>
+          <t>3,65; 11,49</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>3,18; 3,9</t>
+          <t>4,84; 6,12</t>
         </is>
       </c>
     </row>
@@ -1079,4 +1080,799 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Consumo de medicamentos para la alergía o el asma</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>2607</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>3705</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>8526</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>4531</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>16945</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>16781</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>7138</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>20650</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>25307</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>1618; 4288</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>1229; 8338</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>5459; 13822</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>2990; 6739</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>11774; 23840</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>12046; 22299</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>5047; 9764</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>14663; 28667</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>19633; 32772</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>182</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>178</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>13994</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>48372</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>42517</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>18328</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>124785</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>55142</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>32322</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>173157</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>97659</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>10841; 18188</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>26456; 69794</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>33997; 52826</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>15220; 22962</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>50684; 362626</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>45460; 68601</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>27399; 37471</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>96210; 446638</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>84406; 112667</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>5074</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>14902</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>14326</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>8250</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>26034</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>27444</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>13324</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>40936</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>41770</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>3481; 7460</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>8491; 27331</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>9027; 22773</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>6089; 11123</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>18363; 36033</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>20473; 37150</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>10590; 16845</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>30561; 57178</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>31804; 53671</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>128</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>129</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>180</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>155</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>186</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>308</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>218</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>315</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>21675</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>66979</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>65369</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>31109</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>167764</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>99367</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>52784</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>234744</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>164736</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>18216; 26799</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>44713; 91709</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>53399; 78294</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>26207; 36009</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>93327; 432215</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>85129; 116453</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>47387; 59479</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>157517; 496624</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>146072; 184374</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Determinantes Ambientales de la Salud: proyecto multicéntrico a partir de Encuestas Poblacionales de la salud (proyecto DAS-EP, EXPEDIENTE ISCIII - PI22/01051 y PI22/00512)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/CONS_ALER-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/CONS_ALER-Estudios-trans_dic.xlsx
@@ -532,7 +532,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos para la alergía o el asma</t>
+          <t>Consumo de medicamentos para la alergía o el asma (tasa de respuesta: 99,64%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1115,7 +1115,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos para la alergía o el asma</t>
+          <t>Consumo de medicamentos para la alergía o el asma (tasa de respuesta: 99,64%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_dic/CONS_ALER-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/CONS_ALER-Estudios-trans_dic.xlsx
@@ -633,7 +633,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>2,96%</t>
+          <t>3,75%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -648,7 +648,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>3,55%</t>
+          <t>4,22%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -663,7 +663,7 @@
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>3,31%</t>
+          <t>4,03%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -686,12 +686,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,84; 4,87</t>
+          <t>2,28; 5,77</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,54; 3,66</t>
+          <t>0,55; 3,68</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -701,12 +701,12 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2,34; 5,28</t>
+          <t>2,9; 6,14</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>2,98; 6,04</t>
+          <t>2,91; 5,99</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -716,12 +716,12 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>2,34; 4,52</t>
+          <t>2,97; 5,4</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>2,36; 4,6</t>
+          <t>2,36; 4,45</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -743,7 +743,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>3,09%</t>
+          <t>2,74%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -758,7 +758,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>4,24%</t>
+          <t>4,15%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -773,7 +773,7 @@
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>3,65%</t>
+          <t>3,43%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -796,12 +796,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,39; 4,01</t>
+          <t>2,17; 3,51</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,88; 4,95</t>
+          <t>1,71; 4,97</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -811,12 +811,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>3,52; 5,32</t>
+          <t>3,42; 5,15</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>3,66; 26,17</t>
+          <t>3,72; 27,56</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -826,12 +826,12 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>3,09; 4,23</t>
+          <t>3,0; 4,06</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>3,44; 15,98</t>
+          <t>3,45; 14,32</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -853,7 +853,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>3,35%</t>
+          <t>3,2%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -868,7 +868,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>4,25%</t>
+          <t>3,39%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -883,7 +883,7 @@
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>3,85%</t>
+          <t>3,31%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -906,12 +906,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,3; 4,92</t>
+          <t>2,15; 4,6</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,85; 5,94</t>
+          <t>1,67; 5,82</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -921,12 +921,12 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>3,13; 5,73</t>
+          <t>2,46; 4,79</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>4,14; 8,13</t>
+          <t>4,18; 8,0</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -936,12 +936,12 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>3,06; 4,87</t>
+          <t>2,54; 4,11</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>3,38; 6,33</t>
+          <t>3,28; 6,13</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -963,7 +963,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>3,13%</t>
+          <t>2,97%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -978,7 +978,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>4,13%</t>
+          <t>3,95%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -993,7 +993,7 @@
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>3,65%</t>
+          <t>3,48%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -1016,12 +1016,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,63; 3,87</t>
+          <t>2,45; 3,49</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,13; 4,37</t>
+          <t>2,07; 4,4</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1031,12 +1031,12 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>3,48; 4,78</t>
+          <t>3,35; 4,64</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>4,2; 19,43</t>
+          <t>4,11; 19,24</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -1046,12 +1046,12 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>3,27; 4,11</t>
+          <t>3,08; 3,89</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>3,65; 11,49</t>
+          <t>3,59; 10,87</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1269,7 +1269,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2607</t>
+          <t>3092</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -1284,7 +1284,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>4531</t>
+          <t>5128</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -1299,7 +1299,7 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>7138</t>
+          <t>8220</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -1322,12 +1322,12 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>1618; 4288</t>
+          <t>1881; 4765</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>1229; 8338</t>
+          <t>1251; 8380</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
@@ -1337,12 +1337,12 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>2990; 6739</t>
+          <t>3523; 7462</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>11774; 23840</t>
+          <t>11473; 23636</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
@@ -1352,12 +1352,12 @@
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>5047; 9764</t>
+          <t>6062; 11010</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>14663; 28667</t>
+          <t>14664; 27695</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>13994</t>
+          <t>12659</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -1447,7 +1447,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>18328</t>
+          <t>18462</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -1462,7 +1462,7 @@
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>32322</t>
+          <t>31121</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -1485,12 +1485,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>10841; 18188</t>
+          <t>10013; 16206</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>26456; 69794</t>
+          <t>24075; 70010</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -1500,12 +1500,12 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>15220; 22962</t>
+          <t>15200; 22891</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>50684; 362626</t>
+          <t>51566; 381946</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -1515,12 +1515,12 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>27399; 37471</t>
+          <t>27216; 36742</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>96210; 446638</t>
+          <t>96347; 400303</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1595,7 +1595,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>5074</t>
+          <t>5616</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -1610,7 +1610,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>8250</t>
+          <t>7731</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1625,7 +1625,7 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>13324</t>
+          <t>13347</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1648,12 +1648,12 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>3481; 7460</t>
+          <t>3781; 8070</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>8491; 27331</t>
+          <t>7699; 26767</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
@@ -1663,12 +1663,12 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>6089; 11123</t>
+          <t>5618; 10922</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>18363; 36033</t>
+          <t>18525; 35482</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
@@ -1678,12 +1678,12 @@
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>10590; 16845</t>
+          <t>10237; 16575</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>30561; 57178</t>
+          <t>29603; 55374</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1758,7 +1758,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>21675</t>
+          <t>21368</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -1773,7 +1773,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>31109</t>
+          <t>31321</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1788,7 +1788,7 @@
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>52784</t>
+          <t>52689</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -1811,12 +1811,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>18216; 26799</t>
+          <t>17662; 25102</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>44713; 91709</t>
+          <t>43320; 92289</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1826,12 +1826,12 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>26207; 36009</t>
+          <t>26565; 36810</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>93327; 432215</t>
+          <t>91379; 427902</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1841,12 +1841,12 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>47387; 59479</t>
+          <t>46585; 58950</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>157517; 496624</t>
+          <t>155092; 469883</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">

--- a/data/trans_dic/CONS_ALER-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/CONS_ALER-Estudios-trans_dic.xlsx
@@ -563,47 +563,47 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
         </is>
       </c>
     </row>
@@ -633,47 +633,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>1,6%</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>3,95%</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
           <t>3,75%</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>1,63%</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>3,95%</t>
-        </is>
-      </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>4,4%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>6,13%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>4,22%</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>4,29%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>6,13%</t>
-        </is>
-      </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
+          <t>3,36%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>5,17%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
           <t>4,03%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>3,32%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>5,17%</t>
         </is>
       </c>
     </row>
@@ -686,47 +686,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>0,54; 3,62</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>2,53; 6,41</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
           <t>2,28; 5,77</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>0,55; 3,68</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>2,53; 6,41</t>
-        </is>
-      </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
+          <t>3,02; 6,11</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>4,4; 8,15</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
           <t>2,9; 6,14</t>
         </is>
       </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>2,91; 5,99</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>4,4; 8,15</t>
-        </is>
-      </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
+          <t>2,38; 4,5</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>4,01; 6,7</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
           <t>2,97; 5,4</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>2,36; 4,45</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>4,01; 6,7</t>
         </is>
       </c>
     </row>
@@ -743,47 +743,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>3,86%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>4,93%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
           <t>2,74%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>5,24%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>6,35%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>4,15%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>4,54%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>5,64%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
         <is>
           <t>3,43%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>4,93%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>4,15%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>9,0%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>6,35%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>3,43%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>6,19%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>5,64%</t>
         </is>
       </c>
     </row>
@@ -796,47 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>2,77; 5,26</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>3,94; 6,13</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
           <t>2,17; 3,51</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>1,71; 4,97</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>3,94; 6,13</t>
-        </is>
-      </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
+          <t>4,22; 6,45</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>5,24; 7,9</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
           <t>3,42; 5,15</t>
         </is>
       </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>3,72; 27,56</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>5,24; 7,9</t>
-        </is>
-      </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
+          <t>3,8; 5,5</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>4,88; 6,51</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
           <t>3,0; 4,06</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>3,45; 14,32</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>4,88; 6,51</t>
         </is>
       </c>
     </row>
@@ -853,47 +853,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>3,73%</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>3,78%</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>3,2%</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>3,24%</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>3,78%</t>
-        </is>
-      </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>5,81%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>6,58%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>3,39%</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>5,87%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>6,58%</t>
-        </is>
-      </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
+          <t>4,76%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>5,25%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
           <t>3,31%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>4,53%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>5,25%</t>
         </is>
       </c>
     </row>
@@ -906,47 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>2,22; 6,06</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>2,38; 6,02</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
           <t>2,15; 4,6</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>1,67; 5,82</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>2,38; 6,02</t>
-        </is>
-      </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>4,09; 7,85</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>4,91; 8,91</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t>2,46; 4,79</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>4,18; 8,0</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>4,91; 8,91</t>
-        </is>
-      </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
+          <t>3,46; 6,17</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>4,0; 6,75</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
           <t>2,54; 4,11</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>3,28; 6,13</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>4,0; 6,75</t>
         </is>
       </c>
     </row>
@@ -963,47 +963,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>3,55%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>4,49%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>2,97%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>3,19%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>4,49%</t>
-        </is>
-      </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>5,21%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>6,37%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
           <t>3,95%</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>7,54%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>6,37%</t>
-        </is>
-      </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
+          <t>4,4%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>5,46%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
           <t>3,48%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>5,43%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>5,46%</t>
         </is>
       </c>
     </row>
@@ -1016,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>2,82; 4,67</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>3,67; 5,38</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
           <t>2,45; 3,49</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>2,07; 4,4</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>3,67; 5,38</t>
-        </is>
-      </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
+          <t>4,44; 6,08</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>5,46; 7,47</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
           <t>3,35; 4,64</t>
         </is>
       </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>4,11; 19,24</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>5,46; 7,47</t>
-        </is>
-      </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
+          <t>3,86; 5,14</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>4,84; 6,12</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
           <t>3,08; 3,89</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>3,59; 10,87</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>4,84; 6,12</t>
         </is>
       </c>
     </row>
@@ -1146,47 +1146,47 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
         </is>
       </c>
     </row>
@@ -1216,19 +1216,19 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
           <t>19</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
           <t>31</t>
@@ -1236,27 +1236,27 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>31</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>44</t>
-        </is>
-      </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
           <t>50</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>69</t>
         </is>
       </c>
     </row>
@@ -1269,47 +1269,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>4079</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>8526</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
           <t>3092</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>3705</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>8526</t>
-        </is>
-      </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
+          <t>19031</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>16781</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
           <t>5128</t>
         </is>
       </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>16945</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>16781</t>
-        </is>
-      </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
+          <t>23109</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>25307</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
           <t>8220</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>20650</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>25307</t>
         </is>
       </c>
     </row>
@@ -1322,47 +1322,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>1369; 9230</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>5459; 13822</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
           <t>1881; 4765</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>1251; 8380</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>5459; 13822</t>
-        </is>
-      </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>13063; 26401</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>12046; 22299</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
           <t>3523; 7462</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>11473; 23636</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>12046; 22299</t>
-        </is>
-      </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
+          <t>16378; 30906</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>19633; 32772</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
           <t>6062; 11010</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>14664; 27695</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>19633; 32772</t>
         </is>
       </c>
     </row>
@@ -1379,47 +1379,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
           <t>78</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>42</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>81</t>
-        </is>
-      </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
           <t>104</t>
         </is>
       </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>85</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>97</t>
-        </is>
-      </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>178</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
           <t>182</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>127</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>178</t>
         </is>
       </c>
     </row>
@@ -1432,47 +1432,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>49653</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>42517</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>12659</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>48372</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>42517</t>
-        </is>
-      </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>66590</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>55142</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>18462</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>124785</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>55142</t>
-        </is>
-      </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
+          <t>116244</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>97659</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
           <t>31121</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>173157</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>97659</t>
         </is>
       </c>
     </row>
@@ -1485,47 +1485,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>35612; 67765</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>33997; 52826</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
           <t>10013; 16206</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>24075; 70010</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>33997; 52826</t>
-        </is>
-      </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>53627; 82017</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>45460; 68601</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t>15200; 22891</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>51566; 381946</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>45460; 68601</t>
-        </is>
-      </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
+          <t>97152; 140700</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>84406; 112667</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
           <t>27216; 36742</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>96347; 400303</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>84406; 112667</t>
         </is>
       </c>
     </row>
@@ -1542,29 +1542,29 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>31</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
           <t>45</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>39</t>
-        </is>
-      </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
           <t>45</t>
@@ -1572,17 +1572,17 @@
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
           <t>76</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>55</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>68</t>
         </is>
       </c>
     </row>
@@ -1595,47 +1595,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>19037</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>14326</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
           <t>5616</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>14902</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>14326</t>
-        </is>
-      </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
+          <t>28835</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>27444</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
           <t>7731</t>
         </is>
       </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>26034</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>27444</t>
-        </is>
-      </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
+          <t>47872</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>41770</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
           <t>13347</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>40936</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>41770</t>
         </is>
       </c>
     </row>
@@ -1648,47 +1648,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>11311; 30873</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>9027; 22773</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
           <t>3781; 8070</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>7699; 26767</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>9027; 22773</t>
-        </is>
-      </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
+          <t>20286; 38930</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>20473; 37150</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
           <t>5618; 10922</t>
         </is>
       </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>18525; 35482</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>20473; 37150</t>
-        </is>
-      </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
+          <t>34812; 62063</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>31804; 53671</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
           <t>10237; 16575</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>29603; 55374</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>31804; 53671</t>
         </is>
       </c>
     </row>
@@ -1705,47 +1705,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>129</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
           <t>128</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>63</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>129</t>
-        </is>
-      </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
+          <t>155</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>186</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
           <t>180</t>
         </is>
       </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>155</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>186</t>
-        </is>
-      </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
+          <t>218</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>315</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
           <t>308</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>218</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>315</t>
         </is>
       </c>
     </row>
@@ -1758,47 +1758,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>72768</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>65369</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
           <t>21368</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>66979</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>65369</t>
-        </is>
-      </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
+          <t>114456</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>99367</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
           <t>31321</t>
         </is>
       </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>167764</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>99367</t>
-        </is>
-      </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
+          <t>187224</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>164736</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
           <t>52689</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>234744</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>164736</t>
         </is>
       </c>
     </row>
@@ -1811,47 +1811,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>57793; 95937</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>53399; 78294</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
           <t>17662; 25102</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>43320; 92289</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>53399; 78294</t>
-        </is>
-      </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
+          <t>97545; 133790</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>85129; 116453</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
           <t>26565; 36810</t>
         </is>
       </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>91379; 427902</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>85129; 116453</t>
-        </is>
-      </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
+          <t>164044; 218405</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>146072; 184374</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
           <t>46585; 58950</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>155092; 469883</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>146072; 184374</t>
         </is>
       </c>
     </row>
